--- a/Data/EC/NIT-9012558940.xlsx
+++ b/Data/EC/NIT-9012558940.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD21C781-931C-49DD-AB5A-11E7EE44BE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9673F00D-005F-4A40-B852-C7CA533526D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BE89BC3-F6A4-4B60-889A-186A09817842}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FAED78A2-2BEE-4595-BF15-DDD815109703}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="67">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,142 +65,145 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1043964720</t>
+  </si>
+  <si>
+    <t>ZHARICK PAOLA PEREZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>20541885</t>
+  </si>
+  <si>
+    <t>ANA KATERINE PEREZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1044922109</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
     <t>30873441</t>
   </si>
   <si>
     <t>ANA MARIA ANAYA NAVARRO</t>
   </si>
   <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1043635998</t>
+  </si>
+  <si>
+    <t>NICOLLE BERTEL OROZCO</t>
+  </si>
+  <si>
+    <t>1047416981</t>
+  </si>
+  <si>
+    <t>JADER ANTONIO DE AVILA PADILLA</t>
+  </si>
+  <si>
+    <t>1047364950</t>
+  </si>
+  <si>
+    <t>ROSSANA MERCEDES SALVADOR BELTRAN</t>
+  </si>
+  <si>
+    <t>45592029</t>
+  </si>
+  <si>
+    <t>BERENA MARGARITA CANTILLO BELEÑO</t>
+  </si>
+  <si>
+    <t>30777483</t>
+  </si>
+  <si>
+    <t>MARIA CANTILLO BELEÑO</t>
+  </si>
+  <si>
+    <t>45507936</t>
+  </si>
+  <si>
+    <t>YAJAIRA LUZ SANTIAGO RAMOS</t>
+  </si>
+  <si>
+    <t>1007660870</t>
+  </si>
+  <si>
+    <t>SEBASTIAN ANDRES MAZO PUELLO</t>
+  </si>
+  <si>
+    <t>1050969310</t>
+  </si>
+  <si>
+    <t>ANA MARCELA PUELLO DEL RIO</t>
+  </si>
+  <si>
+    <t>1140848045</t>
+  </si>
+  <si>
+    <t>ANA VANESSA MORALES VARGAS</t>
+  </si>
+  <si>
+    <t>1050949594</t>
+  </si>
+  <si>
+    <t>MAYRA ANDREA RAMOS RUIZ</t>
+  </si>
+  <si>
+    <t>1007263656</t>
+  </si>
+  <si>
+    <t>YULIETH PAOLA PADILLA AMARIS</t>
+  </si>
+  <si>
+    <t>9131659</t>
+  </si>
+  <si>
+    <t>JOSE JOAQUIN GARCIA SIERRA</t>
+  </si>
+  <si>
+    <t>1002308995</t>
+  </si>
+  <si>
+    <t>LAURA ALEJANDRA ORELLANO ARISTIZABAL</t>
+  </si>
+  <si>
+    <t>1050969173</t>
+  </si>
+  <si>
+    <t>YULEIS MARGARITA RODRIGUEZ TEHERAN</t>
+  </si>
+  <si>
+    <t>1050967929</t>
+  </si>
+  <si>
+    <t>LILIBETH GREGORIA CASTILLO PAJARO</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>5523279</t>
+  </si>
+  <si>
+    <t>SENEAD CRISTINA MENDOZA RONDON</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1043964720</t>
-  </si>
-  <si>
-    <t>ZHARICK PAOLA PEREZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1043635998</t>
-  </si>
-  <si>
-    <t>NICOLLE BERTEL OROZCO</t>
-  </si>
-  <si>
-    <t>1047416981</t>
-  </si>
-  <si>
-    <t>JADER ANTONIO DE AVILA PADILLA</t>
-  </si>
-  <si>
-    <t>1047364950</t>
-  </si>
-  <si>
-    <t>ROSSANA MERCEDES SALVADOR BELTRAN</t>
-  </si>
-  <si>
-    <t>45592029</t>
-  </si>
-  <si>
-    <t>BERENA MARGARITA CANTILLO BELEÑO</t>
-  </si>
-  <si>
-    <t>30777483</t>
-  </si>
-  <si>
-    <t>MARIA CANTILLO BELEÑO</t>
-  </si>
-  <si>
-    <t>45507936</t>
-  </si>
-  <si>
-    <t>YAJAIRA LUZ SANTIAGO RAMOS</t>
-  </si>
-  <si>
-    <t>1007660870</t>
-  </si>
-  <si>
-    <t>SEBASTIAN ANDRES MAZO PUELLO</t>
-  </si>
-  <si>
-    <t>1050969310</t>
-  </si>
-  <si>
-    <t>ANA MARCELA PUELLO DEL RIO</t>
-  </si>
-  <si>
-    <t>1140848045</t>
-  </si>
-  <si>
-    <t>ANA VANESSA MORALES VARGAS</t>
-  </si>
-  <si>
-    <t>1044922109</t>
-  </si>
-  <si>
-    <t>ANA KATERINE PEREZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1050949594</t>
-  </si>
-  <si>
-    <t>MAYRA ANDREA RAMOS RUIZ</t>
-  </si>
-  <si>
-    <t>1007263656</t>
-  </si>
-  <si>
-    <t>YULIETH PAOLA PADILLA AMARIS</t>
-  </si>
-  <si>
-    <t>9131659</t>
-  </si>
-  <si>
-    <t>JOSE JOAQUIN GARCIA SIERRA</t>
-  </si>
-  <si>
-    <t>1002308995</t>
-  </si>
-  <si>
-    <t>LAURA ALEJANDRA ORELLANO ARISTIZABAL</t>
-  </si>
-  <si>
-    <t>1044922100</t>
-  </si>
-  <si>
-    <t>1050969173</t>
-  </si>
-  <si>
-    <t>YULEIS MARGARITA RODRIGUEZ TEHERAN</t>
-  </si>
-  <si>
-    <t>1050967929</t>
-  </si>
-  <si>
-    <t>LILIBETH GREGORIA CASTILLO PAJARO</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>5523279</t>
-  </si>
-  <si>
-    <t>SENEAD CRISTINA MENDOZA RONDON</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -299,7 +302,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -312,9 +317,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -514,23 +517,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,10 +561,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227FEFDD-5EEF-E847-DE45-341FB16288DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF064532-72EC-7114-7AAD-4E7D99E752F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,8 +968,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF78DB0F-BA06-4971-98DC-C5488CA9D7D6}">
-  <dimension ref="B2:J79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88D7923-3B5F-4FC5-9333-97D55B0179CC}">
+  <dimension ref="B2:J97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -990,7 +993,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1035,7 +1038,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1067,12 +1070,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3204266</v>
+        <v>4229654</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1083,17 +1086,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5">
         <v>20</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1120,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1143,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>3796</v>
       </c>
       <c r="G16" s="18">
         <v>1423500</v>
@@ -1157,16 +1160,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>9490</v>
       </c>
       <c r="G17" s="18">
         <v>1423500</v>
@@ -1180,19 +1183,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>57408</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1435200</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1206,16 +1209,16 @@
         <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>3796</v>
+        <v>57408</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>1435200</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1232,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1249,13 +1252,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1272,13 +1275,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>56940</v>
@@ -1295,13 +1298,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
@@ -1318,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1341,13 +1344,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>56940</v>
@@ -1364,13 +1367,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1387,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>56940</v>
@@ -1410,13 +1413,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>56940</v>
@@ -1433,13 +1436,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>56940</v>
@@ -1456,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>56940</v>
+        <v>57408</v>
       </c>
       <c r="G30" s="18">
-        <v>1423500</v>
+        <v>1435200</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1479,13 +1482,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F31" s="18">
         <v>56940</v>
@@ -1502,13 +1505,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F32" s="18">
         <v>56940</v>
@@ -1525,13 +1528,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F33" s="18">
         <v>56940</v>
@@ -1548,13 +1551,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F34" s="18">
         <v>56940</v>
@@ -1571,13 +1574,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F35" s="18">
         <v>56940</v>
@@ -1594,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F36" s="18">
         <v>56940</v>
@@ -1614,16 +1617,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F37" s="18">
         <v>56940</v>
@@ -1640,13 +1643,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F38" s="18">
         <v>56940</v>
@@ -1663,13 +1666,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F39" s="18">
         <v>56940</v>
@@ -1686,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F40" s="18">
         <v>56940</v>
@@ -1709,13 +1712,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F41" s="18">
         <v>56940</v>
@@ -1732,13 +1735,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F42" s="18">
         <v>56940</v>
@@ -1755,13 +1758,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F43" s="18">
         <v>56940</v>
@@ -1778,13 +1781,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F44" s="18">
         <v>56940</v>
@@ -1801,13 +1804,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E45" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F45" s="18">
         <v>56940</v>
@@ -1824,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F46" s="18">
         <v>56940</v>
@@ -1847,19 +1850,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F47" s="18">
-        <v>57408</v>
+        <v>56940</v>
       </c>
       <c r="G47" s="18">
-        <v>1435200</v>
+        <v>1423500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1870,13 +1873,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F48" s="18">
         <v>57408</v>
@@ -1893,19 +1896,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F49" s="18">
-        <v>57408</v>
+        <v>56940</v>
       </c>
       <c r="G49" s="18">
-        <v>1435200</v>
+        <v>1423500</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1916,19 +1919,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F50" s="18">
-        <v>57408</v>
+        <v>56940</v>
       </c>
       <c r="G50" s="18">
-        <v>1435200</v>
+        <v>1423500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1939,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F51" s="18">
-        <v>57408</v>
+        <v>56940</v>
       </c>
       <c r="G51" s="18">
-        <v>1435200</v>
+        <v>1423500</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1962,13 +1965,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
         <v>56940</v>
@@ -1985,13 +1988,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F53" s="18">
         <v>56940</v>
@@ -2008,13 +2011,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F54" s="18">
         <v>56940</v>
@@ -2028,16 +2031,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
         <v>56940</v>
@@ -2054,13 +2057,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F56" s="18">
         <v>56940</v>
@@ -2077,13 +2080,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
         <v>56940</v>
@@ -2100,13 +2103,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>56940</v>
@@ -2123,13 +2126,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>56940</v>
@@ -2146,13 +2149,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F60" s="18">
         <v>56940</v>
@@ -2169,13 +2172,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F61" s="18">
         <v>56940</v>
@@ -2192,13 +2195,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F62" s="18">
         <v>56940</v>
@@ -2215,13 +2218,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F63" s="18">
         <v>56940</v>
@@ -2238,16 +2241,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F64" s="18">
-        <v>9490</v>
+        <v>56940</v>
       </c>
       <c r="G64" s="18">
         <v>1423500</v>
@@ -2261,13 +2264,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F65" s="18">
         <v>56940</v>
@@ -2284,19 +2287,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F66" s="18">
-        <v>56940</v>
+        <v>57408</v>
       </c>
       <c r="G66" s="18">
-        <v>1423500</v>
+        <v>1435200</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2307,13 +2310,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F67" s="18">
         <v>56940</v>
@@ -2330,13 +2333,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F68" s="18">
         <v>56940</v>
@@ -2353,13 +2356,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F69" s="18">
         <v>56940</v>
@@ -2376,13 +2379,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F70" s="18">
         <v>56940</v>
@@ -2396,16 +2399,16 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F71" s="18">
         <v>56940</v>
@@ -2419,16 +2422,16 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D72" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F72" s="18">
         <v>56940</v>
@@ -2441,56 +2444,470 @@
       <c r="J72" s="20"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="23" t="s">
+      <c r="E73" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="F73" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G80" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G81" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G82" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G83" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F73" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G73" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
+      <c r="E84" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="18">
+        <v>57408</v>
+      </c>
+      <c r="G84" s="18">
+        <v>1435200</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G85" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G86" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G87" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G88" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G89" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G90" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G91" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="26"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="H96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="H78" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="H79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="C97" s="32"/>
+      <c r="H97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H96:J96"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
